--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.083608167108</v>
+        <v>24.44205933333333</v>
       </c>
       <c r="H2">
-        <v>24.083608167108</v>
+        <v>73.326178</v>
       </c>
       <c r="I2">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="J2">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.13036839234934</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N2">
-        <v>5.13036839234934</v>
+        <v>19.830535</v>
       </c>
       <c r="O2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q2">
-        <v>123.5577821142573</v>
+        <v>161.5663710272478</v>
       </c>
       <c r="R2">
-        <v>123.5577821142573</v>
+        <v>1454.09733924523</v>
       </c>
       <c r="S2">
-        <v>0.2118032425738008</v>
+        <v>0.2192166761256003</v>
       </c>
       <c r="T2">
-        <v>0.2118032425738008</v>
+        <v>0.2192166761256003</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.083608167108</v>
+        <v>24.44205933333333</v>
       </c>
       <c r="H3">
-        <v>24.083608167108</v>
+        <v>73.326178</v>
       </c>
       <c r="I3">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="J3">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.75397691008961</v>
+        <v>2.754304</v>
       </c>
       <c r="N3">
-        <v>2.75397691008961</v>
+        <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q3">
-        <v>66.32570080386098</v>
+        <v>67.32086179003733</v>
       </c>
       <c r="R3">
-        <v>66.32570080386098</v>
+        <v>605.887756110336</v>
       </c>
       <c r="S3">
-        <v>0.1136957806773104</v>
+        <v>0.09134237194096557</v>
       </c>
       <c r="T3">
-        <v>0.1136957806773104</v>
+        <v>0.09134237194096562</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.083608167108</v>
+        <v>24.44205933333333</v>
       </c>
       <c r="H4">
-        <v>24.083608167108</v>
+        <v>73.326178</v>
       </c>
       <c r="I4">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="J4">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.22314243815605</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N4">
-        <v>0.22314243815605</v>
+        <v>0.687851</v>
       </c>
       <c r="O4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q4">
-        <v>5.374075046003438</v>
+        <v>5.604164984830889</v>
       </c>
       <c r="R4">
-        <v>5.374075046003438</v>
+        <v>50.437484863478</v>
       </c>
       <c r="S4">
-        <v>0.009212260863714012</v>
+        <v>0.007603849814927851</v>
       </c>
       <c r="T4">
-        <v>0.009212260863714012</v>
+        <v>0.007603849814927852</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.083608167108</v>
+        <v>24.44205933333333</v>
       </c>
       <c r="H5">
-        <v>24.083608167108</v>
+        <v>73.326178</v>
       </c>
       <c r="I5">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="J5">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.220869978492051</v>
+        <v>0.214866</v>
       </c>
       <c r="N5">
-        <v>0.220869978492051</v>
+        <v>0.644598</v>
       </c>
       <c r="O5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q5">
-        <v>5.319346017880128</v>
+        <v>5.251767520716</v>
       </c>
       <c r="R5">
-        <v>5.319346017880128</v>
+        <v>47.265907686444</v>
       </c>
       <c r="S5">
-        <v>0.009118444145567433</v>
+        <v>0.007125709467606884</v>
       </c>
       <c r="T5">
-        <v>0.009118444145567433</v>
+        <v>0.007125709467606886</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.1186355499312</v>
+        <v>24.44205933333333</v>
       </c>
       <c r="H6">
-        <v>25.1186355499312</v>
+        <v>73.326178</v>
       </c>
       <c r="I6">
-        <v>0.3586063008282936</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="J6">
-        <v>0.3586063008282936</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.13036839234934</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N6">
-        <v>5.13036839234934</v>
+        <v>0.797045</v>
       </c>
       <c r="O6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q6">
-        <v>128.8678538843095</v>
+        <v>6.493807060445555</v>
       </c>
       <c r="R6">
-        <v>128.8678538843095</v>
+        <v>58.44426354401</v>
       </c>
       <c r="S6">
-        <v>0.2209057887667765</v>
+        <v>0.008810935036423832</v>
       </c>
       <c r="T6">
-        <v>0.2209057887667765</v>
+        <v>0.008810935036423833</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>25.1186355499312</v>
+        <v>25.12806966666666</v>
       </c>
       <c r="H7">
-        <v>25.1186355499312</v>
+        <v>75.384209</v>
       </c>
       <c r="I7">
-        <v>0.3586063008282936</v>
+        <v>0.3434766466349131</v>
       </c>
       <c r="J7">
-        <v>0.3586063008282936</v>
+        <v>0.343476646634913</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.75397691008961</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N7">
-        <v>2.75397691008961</v>
+        <v>19.830535</v>
       </c>
       <c r="O7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q7">
-        <v>69.17614231746656</v>
+        <v>166.1010216690906</v>
       </c>
       <c r="R7">
-        <v>69.17614231746656</v>
+        <v>1494.909195021815</v>
       </c>
       <c r="S7">
-        <v>0.1185820188811521</v>
+        <v>0.2253693862148053</v>
       </c>
       <c r="T7">
-        <v>0.1185820188811521</v>
+        <v>0.2253693862148053</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.1186355499312</v>
+        <v>25.12806966666666</v>
       </c>
       <c r="H8">
-        <v>25.1186355499312</v>
+        <v>75.384209</v>
       </c>
       <c r="I8">
-        <v>0.3586063008282936</v>
+        <v>0.3434766466349131</v>
       </c>
       <c r="J8">
-        <v>0.3586063008282936</v>
+        <v>0.343476646634913</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.22314243815605</v>
+        <v>2.754304</v>
       </c>
       <c r="N8">
-        <v>0.22314243815605</v>
+        <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q8">
-        <v>5.605033579764882</v>
+        <v>69.21034279517866</v>
       </c>
       <c r="R8">
-        <v>5.605033579764882</v>
+        <v>622.893085156608</v>
       </c>
       <c r="S8">
-        <v>0.009608170902836669</v>
+        <v>0.09390605981063795</v>
       </c>
       <c r="T8">
-        <v>0.009608170902836669</v>
+        <v>0.09390605981063797</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.1186355499312</v>
+        <v>25.12806966666666</v>
       </c>
       <c r="H9">
-        <v>25.1186355499312</v>
+        <v>75.384209</v>
       </c>
       <c r="I9">
-        <v>0.3586063008282936</v>
+        <v>0.3434766466349131</v>
       </c>
       <c r="J9">
-        <v>0.3586063008282936</v>
+        <v>0.343476646634913</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.220869978492051</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N9">
-        <v>0.220869978492051</v>
+        <v>0.687851</v>
       </c>
       <c r="O9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q9">
-        <v>5.547952493662971</v>
+        <v>5.761455949428777</v>
       </c>
       <c r="R9">
-        <v>5.547952493662971</v>
+        <v>51.853103544859</v>
       </c>
       <c r="S9">
-        <v>0.009510322277528399</v>
+        <v>0.00781726552900565</v>
       </c>
       <c r="T9">
-        <v>0.009510322277528399</v>
+        <v>0.00781726552900565</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.49851553721209</v>
+        <v>25.12806966666666</v>
       </c>
       <c r="H10">
-        <v>6.49851553721209</v>
+        <v>75.384209</v>
       </c>
       <c r="I10">
-        <v>0.09277608304170812</v>
+        <v>0.3434766466349131</v>
       </c>
       <c r="J10">
-        <v>0.09277608304170812</v>
+        <v>0.343476646634913</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>5.13036839234934</v>
+        <v>0.214866</v>
       </c>
       <c r="N10">
-        <v>5.13036839234934</v>
+        <v>0.644598</v>
       </c>
       <c r="O10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q10">
-        <v>33.339778709304</v>
+        <v>5.399167816997999</v>
       </c>
       <c r="R10">
-        <v>33.339778709304</v>
+        <v>48.592510352982</v>
       </c>
       <c r="S10">
-        <v>0.0571511815483513</v>
+        <v>0.007325705313310563</v>
       </c>
       <c r="T10">
-        <v>0.0571511815483513</v>
+        <v>0.007325705313310563</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.49851553721209</v>
+        <v>25.12806966666666</v>
       </c>
       <c r="H11">
-        <v>6.49851553721209</v>
+        <v>75.384209</v>
       </c>
       <c r="I11">
-        <v>0.09277608304170812</v>
+        <v>0.3434766466349131</v>
       </c>
       <c r="J11">
-        <v>0.09277608304170812</v>
+        <v>0.343476646634913</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.75397691008961</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N11">
-        <v>2.75397691008961</v>
+        <v>0.797045</v>
       </c>
       <c r="O11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q11">
-        <v>17.89676173934068</v>
+        <v>6.67606742915611</v>
       </c>
       <c r="R11">
-        <v>17.89676173934068</v>
+        <v>60.084606862405</v>
       </c>
       <c r="S11">
-        <v>0.03067870030604647</v>
+        <v>0.009058229767153508</v>
       </c>
       <c r="T11">
-        <v>0.03067870030604647</v>
+        <v>0.00905822976715351</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.49851553721209</v>
+        <v>6.509850333333333</v>
       </c>
       <c r="H12">
-        <v>6.49851553721209</v>
+        <v>19.529551</v>
       </c>
       <c r="I12">
-        <v>0.09277608304170812</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="J12">
-        <v>0.09277608304170812</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.22314243815605</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N12">
-        <v>0.22314243815605</v>
+        <v>19.830535</v>
       </c>
       <c r="O12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q12">
-        <v>1.450094601368479</v>
+        <v>43.03127162664278</v>
       </c>
       <c r="R12">
-        <v>1.450094601368479</v>
+        <v>387.281444639785</v>
       </c>
       <c r="S12">
-        <v>0.002485757945416913</v>
+        <v>0.05838574126208231</v>
       </c>
       <c r="T12">
-        <v>0.002485757945416913</v>
+        <v>0.05838574126208233</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.49851553721209</v>
+        <v>6.509850333333333</v>
       </c>
       <c r="H13">
-        <v>6.49851553721209</v>
+        <v>19.529551</v>
       </c>
       <c r="I13">
-        <v>0.09277608304170812</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="J13">
-        <v>0.09277608304170812</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.220869978492051</v>
+        <v>2.754304</v>
       </c>
       <c r="N13">
-        <v>0.220869978492051</v>
+        <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.02652023195231612</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P13">
-        <v>0.02652023195231612</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q13">
-        <v>1.435326986934294</v>
+        <v>17.93010681250133</v>
       </c>
       <c r="R13">
-        <v>1.435326986934294</v>
+        <v>161.370961312512</v>
       </c>
       <c r="S13">
-        <v>0.002460443241893442</v>
+        <v>0.02432794889816916</v>
       </c>
       <c r="T13">
-        <v>0.002460443241893442</v>
+        <v>0.02432794889816917</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.62415687119206</v>
+        <v>6.509850333333333</v>
       </c>
       <c r="H14">
-        <v>4.62415687119206</v>
+        <v>19.529551</v>
       </c>
       <c r="I14">
-        <v>0.06601679405442318</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="J14">
-        <v>0.06601679405442318</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.13036839234934</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N14">
-        <v>5.13036839234934</v>
+        <v>0.687851</v>
       </c>
       <c r="O14">
-        <v>0.6160120116588518</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P14">
-        <v>0.6160120116588518</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q14">
-        <v>23.72362825322876</v>
+        <v>1.492602353877889</v>
       </c>
       <c r="R14">
-        <v>23.72362825322876</v>
+        <v>13.433421184901</v>
       </c>
       <c r="S14">
-        <v>0.04066713810873335</v>
+        <v>0.002025194504982572</v>
       </c>
       <c r="T14">
-        <v>0.04066713810873335</v>
+        <v>0.002025194504982573</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.62415687119206</v>
+        <v>6.509850333333333</v>
       </c>
       <c r="H15">
-        <v>4.62415687119206</v>
+        <v>19.529551</v>
       </c>
       <c r="I15">
-        <v>0.06601679405442318</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="J15">
-        <v>0.06601679405442318</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>2.75397691008961</v>
+        <v>0.214866</v>
       </c>
       <c r="N15">
-        <v>2.75397691008961</v>
+        <v>0.644598</v>
       </c>
       <c r="O15">
-        <v>0.3306746663604526</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P15">
-        <v>0.3306746663604526</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q15">
-        <v>12.73482125189515</v>
+        <v>1.398745501722</v>
       </c>
       <c r="R15">
-        <v>12.73482125189515</v>
+        <v>12.588709515498</v>
       </c>
       <c r="S15">
-        <v>0.02183008134813309</v>
+        <v>0.001897847538962299</v>
       </c>
       <c r="T15">
-        <v>0.02183008134813309</v>
+        <v>0.001897847538962299</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.62415687119206</v>
+        <v>6.509850333333333</v>
       </c>
       <c r="H16">
-        <v>4.62415687119206</v>
+        <v>19.529551</v>
       </c>
       <c r="I16">
-        <v>0.06601679405442318</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="J16">
-        <v>0.06601679405442318</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.22314243815605</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N16">
-        <v>0.22314243815605</v>
+        <v>0.797045</v>
       </c>
       <c r="O16">
-        <v>0.02679309002837966</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P16">
-        <v>0.02679309002837966</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q16">
-        <v>1.031845638653848</v>
+        <v>1.729547886310555</v>
       </c>
       <c r="R16">
-        <v>1.031845638653848</v>
+        <v>15.565930976795</v>
       </c>
       <c r="S16">
-        <v>0.001768793906485159</v>
+        <v>0.002346687224738838</v>
       </c>
       <c r="T16">
-        <v>0.001768793906485159</v>
+        <v>0.002346687224738839</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.62415687119206</v>
+        <v>6.566248333333333</v>
       </c>
       <c r="H17">
-        <v>4.62415687119206</v>
+        <v>19.698745</v>
       </c>
       <c r="I17">
-        <v>0.06601679405442318</v>
+        <v>0.08975432607532249</v>
       </c>
       <c r="J17">
-        <v>0.06601679405442318</v>
+        <v>0.08975432607532248</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.220869978492051</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N17">
-        <v>0.220869978492051</v>
+        <v>19.830535</v>
       </c>
       <c r="O17">
-        <v>0.02652023195231612</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P17">
-        <v>0.02652023195231612</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q17">
-        <v>1.02133742868406</v>
+        <v>43.40407246428612</v>
       </c>
       <c r="R17">
-        <v>1.02133742868406</v>
+        <v>390.636652178575</v>
       </c>
       <c r="S17">
-        <v>0.001750780691071587</v>
+        <v>0.05889156533899514</v>
       </c>
       <c r="T17">
-        <v>0.001750780691071587</v>
+        <v>0.05889156533899514</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.720243404417779</v>
+        <v>6.566248333333333</v>
       </c>
       <c r="H18">
-        <v>9.720243404417779</v>
+        <v>19.698745</v>
       </c>
       <c r="I18">
-        <v>0.1387710938151824</v>
+        <v>0.08975432607532249</v>
       </c>
       <c r="J18">
-        <v>0.1387710938151824</v>
+        <v>0.08975432607532248</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.13036839234934</v>
+        <v>2.754304</v>
       </c>
       <c r="N18">
-        <v>5.13036839234934</v>
+        <v>8.262912</v>
       </c>
       <c r="O18">
-        <v>0.6160120116588518</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P18">
-        <v>0.6160120116588518</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q18">
-        <v>49.86842952796712</v>
+        <v>18.08544404949333</v>
       </c>
       <c r="R18">
-        <v>49.86842952796712</v>
+        <v>162.76899644544</v>
       </c>
       <c r="S18">
-        <v>0.08548466066118977</v>
+        <v>0.02453871375322789</v>
       </c>
       <c r="T18">
-        <v>0.08548466066118977</v>
+        <v>0.02453871375322789</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.720243404417779</v>
+        <v>6.566248333333333</v>
       </c>
       <c r="H19">
-        <v>9.720243404417779</v>
+        <v>19.698745</v>
       </c>
       <c r="I19">
-        <v>0.1387710938151824</v>
+        <v>0.08975432607532249</v>
       </c>
       <c r="J19">
-        <v>0.1387710938151824</v>
+        <v>0.08975432607532248</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.75397691008961</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N19">
-        <v>2.75397691008961</v>
+        <v>0.687851</v>
       </c>
       <c r="O19">
-        <v>0.3306746663604526</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P19">
-        <v>0.3306746663604526</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q19">
-        <v>26.76932589621739</v>
+        <v>1.505533494110556</v>
       </c>
       <c r="R19">
-        <v>26.76932589621739</v>
+        <v>13.549801446995</v>
       </c>
       <c r="S19">
-        <v>0.04588808514781052</v>
+        <v>0.002042739750087083</v>
       </c>
       <c r="T19">
-        <v>0.04588808514781052</v>
+        <v>0.002042739750087083</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.720243404417779</v>
+        <v>6.566248333333333</v>
       </c>
       <c r="H20">
-        <v>9.720243404417779</v>
+        <v>19.698745</v>
       </c>
       <c r="I20">
-        <v>0.1387710938151824</v>
+        <v>0.08975432607532249</v>
       </c>
       <c r="J20">
-        <v>0.1387710938151824</v>
+        <v>0.08975432607532248</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.22314243815605</v>
+        <v>0.214866</v>
       </c>
       <c r="N20">
-        <v>0.22314243815605</v>
+        <v>0.644598</v>
       </c>
       <c r="O20">
-        <v>0.02679309002837966</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P20">
-        <v>0.02679309002837966</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q20">
-        <v>2.168998812732047</v>
+        <v>1.41086351439</v>
       </c>
       <c r="R20">
-        <v>2.168998812732047</v>
+        <v>12.69777162951</v>
       </c>
       <c r="S20">
-        <v>0.003718106409926902</v>
+        <v>0.001914289515355263</v>
       </c>
       <c r="T20">
-        <v>0.003718106409926902</v>
+        <v>0.001914289515355263</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.720243404417779</v>
+        <v>6.566248333333333</v>
       </c>
       <c r="H21">
-        <v>9.720243404417779</v>
+        <v>19.698745</v>
       </c>
       <c r="I21">
-        <v>0.1387710938151824</v>
+        <v>0.08975432607532249</v>
       </c>
       <c r="J21">
-        <v>0.1387710938151824</v>
+        <v>0.08975432607532248</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.220869978492051</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N21">
-        <v>0.220869978492051</v>
+        <v>0.797045</v>
       </c>
       <c r="O21">
-        <v>0.02652023195231612</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P21">
-        <v>0.02652023195231612</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q21">
-        <v>2.146909951671256</v>
+        <v>1.744531800947222</v>
       </c>
       <c r="R21">
-        <v>2.146909951671256</v>
+        <v>15.700786208525</v>
       </c>
       <c r="S21">
-        <v>0.003680241596255259</v>
+        <v>0.002367017717657107</v>
       </c>
       <c r="T21">
-        <v>0.003680241596255259</v>
+        <v>0.002367017717657107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>10.51178733333333</v>
+      </c>
+      <c r="H22">
+        <v>31.535362</v>
+      </c>
+      <c r="I22">
+        <v>0.1436860654753049</v>
+      </c>
+      <c r="J22">
+        <v>0.1436860654753049</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.610178333333334</v>
+      </c>
+      <c r="N22">
+        <v>19.830535</v>
+      </c>
+      <c r="O22">
+        <v>0.6561418030098394</v>
+      </c>
+      <c r="P22">
+        <v>0.6561418030098395</v>
+      </c>
+      <c r="Q22">
+        <v>69.48478887540777</v>
+      </c>
+      <c r="R22">
+        <v>625.36309987867</v>
+      </c>
+      <c r="S22">
+        <v>0.09427843406835636</v>
+      </c>
+      <c r="T22">
+        <v>0.09427843406835637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>10.51178733333333</v>
+      </c>
+      <c r="H23">
+        <v>31.535362</v>
+      </c>
+      <c r="I23">
+        <v>0.1436860654753049</v>
+      </c>
+      <c r="J23">
+        <v>0.1436860654753049</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.754304</v>
+      </c>
+      <c r="N23">
+        <v>8.262912</v>
+      </c>
+      <c r="O23">
+        <v>0.2733986742057961</v>
+      </c>
+      <c r="P23">
+        <v>0.2733986742057962</v>
+      </c>
+      <c r="Q23">
+        <v>28.95265789934933</v>
+      </c>
+      <c r="R23">
+        <v>260.573921094144</v>
+      </c>
+      <c r="S23">
+        <v>0.03928357980279556</v>
+      </c>
+      <c r="T23">
+        <v>0.03928357980279558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>10.51178733333333</v>
+      </c>
+      <c r="H24">
+        <v>31.535362</v>
+      </c>
+      <c r="I24">
+        <v>0.1436860654753049</v>
+      </c>
+      <c r="J24">
+        <v>0.1436860654753049</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.2292836666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.687851</v>
+      </c>
+      <c r="O24">
+        <v>0.02275923445041301</v>
+      </c>
+      <c r="P24">
+        <v>0.02275923445041302</v>
+      </c>
+      <c r="Q24">
+        <v>2.410181143006889</v>
+      </c>
+      <c r="R24">
+        <v>21.691630287062</v>
+      </c>
+      <c r="S24">
+        <v>0.003270184851409858</v>
+      </c>
+      <c r="T24">
+        <v>0.003270184851409859</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>10.51178733333333</v>
+      </c>
+      <c r="H25">
+        <v>31.535362</v>
+      </c>
+      <c r="I25">
+        <v>0.1436860654753049</v>
+      </c>
+      <c r="J25">
+        <v>0.1436860654753049</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.214866</v>
+      </c>
+      <c r="N25">
+        <v>0.644598</v>
+      </c>
+      <c r="O25">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="P25">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="Q25">
+        <v>2.258625697164</v>
+      </c>
+      <c r="R25">
+        <v>20.327631274476</v>
+      </c>
+      <c r="S25">
+        <v>0.003064551210726003</v>
+      </c>
+      <c r="T25">
+        <v>0.003064551210726003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>10.51178733333333</v>
+      </c>
+      <c r="H26">
+        <v>31.535362</v>
+      </c>
+      <c r="I26">
+        <v>0.1436860654753049</v>
+      </c>
+      <c r="J26">
+        <v>0.1436860654753049</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2656816666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.797045</v>
+      </c>
+      <c r="O26">
+        <v>0.02637218528799033</v>
+      </c>
+      <c r="P26">
+        <v>0.02637218528799034</v>
+      </c>
+      <c r="Q26">
+        <v>2.792789178365555</v>
+      </c>
+      <c r="R26">
+        <v>25.13510260529</v>
+      </c>
+      <c r="S26">
+        <v>0.00378931554201705</v>
+      </c>
+      <c r="T26">
+        <v>0.003789315542017051</v>
       </c>
     </row>
   </sheetData>
